--- a/biology/Botanique/Gemmage/Gemmage.xlsx
+++ b/biology/Botanique/Gemmage/Gemmage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gemmage vise à récolter l'oléorésine sur un pin vivant (en France principalement Pinus pinaster, le pin maritime). L'oléorésine mêlée d'eau, provenant principalement des pluies, et d'impuretés solides, prend alors le nom de « gemme ». La gemme, après clarification, porte le nom de térébenthine[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gemmage vise à récolter l'oléorésine sur un pin vivant (en France principalement Pinus pinaster, le pin maritime). L'oléorésine mêlée d'eau, provenant principalement des pluies, et d'impuretés solides, prend alors le nom de « gemme ». La gemme, après clarification, porte le nom de térébenthine. 
 Le professionnel qui effectue la saignée du pin est appelé résinier ou gemmeur.
 Le gemmage à mort vise à récupérer la totalité de la résine d'un pin destiné à être coupé.
 Cet article s'attache à décrire la pratique ancienne du gemmage dans les Landes de Gascogne.
@@ -514,9 +526,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résine circule dans les canaux résinifères, ou trachéides, qui se situent dans l'aubier. Elle participe au phénomène de compartimentation (CODIT), en bouchant physiquement les trachéides lors d'un dommage accidentel et au contact de l'air. Elle est composée à 70 % de colophane (ou arcanson en gascon, dérivé du nom de la ville d’Arcachon[2]), 20 % d’essence de térébenthine, et 10 % d’eau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résine circule dans les canaux résinifères, ou trachéides, qui se situent dans l'aubier. Elle participe au phénomène de compartimentation (CODIT), en bouchant physiquement les trachéides lors d'un dommage accidentel et au contact de l'air. Elle est composée à 70 % de colophane (ou arcanson en gascon, dérivé du nom de la ville d’Arcachon), 20 % d’essence de térébenthine, et 10 % d’eau.
 L'invention du gemmage remonte à l'époque gallo-romaine, mais le procédé amorça en France sa phase industrielle au XVIIe siècle, pour se généraliser dans les landes de Gascogne à partir du milieu du XIXe siècle avec la fin du système agro-pastoral et le boisement massif de la plaine sableuse des Landes.
 On distingue couramment le gemmage à vie, modéré et qui permet la croissance de l'arbre, du gemmage à mort qui l'épuise en quelques années avant son abattage.
 Le gemmage est une activité très caractéristique de l'exploitation traditionnelle de la forêt de pin des Landes. On retrouve également la pratique du gemmage en Amérique, en Chine (premier pays producteur de résine), au Brésil et en Europe en Espagne, au Portugal, en Allemagne, etc.
@@ -549,7 +563,9 @@
           <t>Une technique ancestrale : le gemmage au « cròt »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis plus de 2000 ans, des îlots de forêt spontanée occupaient une grande partie de la région. On retrouvait ces forêts millénaires sur la côte, comme à Lacanau, Le Porge, La Teste de Buch, Biscarrosse, et en Marensin. Les Romains y exploitaient déjà la résine, notamment pour le calfatage des bateaux. La pratique connue la plus ancienne est celle du gemmage au « cròt » (trou en Gascon).
 Pour récolter la résine, les anciens gemmeurs creusaient un trou au pied du pin, en général entre les racines, qu’ils tapissaient de mousse. Ils réalisaient ensuite une incision dans l’arbre appelée care avec le hapchòt (hache en gascon, ayant l’extrémité recourbée). De cette blessure coule la résine qui sera récoltée trois à quatre fois par an, c’est l’amassa.
@@ -583,7 +599,9 @@
           <t>Invention du pot de résine, le gemmage traditionnel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Hugues, avocat et agriculteur bordelais breveta vers 1840 un nouveau système pour récolter la résine qu'il mit au point à Pessac. Une partie seulement de son procédé, quelque peu compliqué, sera reprise : l’utilisation d’un pot en terre cuite coincé entre une lamelle de zinc et un clou au bas de la care pour récolter la résine. Ce pot était dit ascensionnel car il suivait chaque année la montée de la care. Le principal avantage était que la résine récoltée contenait moins d’impuretés, et c’est ainsi que durant la deuxième moitié du XIXe siècle ce procédé se généralisa. Le hapchot aussi évolua, la lame devint plus étroite et son tranchant  était orthogonal à l’axe du manche, par opposition à la hache traditionnelle, où le tranchant est parallèle.
 </t>
@@ -614,7 +632,9 @@
           <t>Le gemmage à l'activée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une autre technique fut introduite en France dans les années 1950, celle du gemmage à l’activée qui consistait à pulvériser de l’acide sulfurique sur la care augmentant le rendement, mais attaquant le pin en profondeur. Cette technique fut mise au point en Russie et en Allemagne durant la Première Guerre mondiale. La saison chaude étant très courte, et la main-d'œuvre faisant défaut à cette époque, des recherches permettant d'augmenter les rendements et de diminuer le temps passé par les opérateurs sur les arbres furent développées, consistant à appliquer des activants sur les cares. Les Américains reprirent ces travaux et exportèrent le gemmage à l'acide sulfurique en France dans la seconde moitié du XXe siècle. L'acide sulfurique maintient les canaux conducteurs de résine ouverts et ralentit la cicatrisation. Le pin réagit à la blessure en produisant davantage de résine. Les piques peuvent être pratiquées à intervalles moins réguliers (15 jours au lieu de 7 au hapchot) pour une récolte plus rapide (15 jours au lieu d'un mois au hapchot). L'outil utilisé est une « rainette », incorporant à la fois une lame tranchante de 2 cm de large, servant à pratiquer une pique horizontale sur 10 cm, avant de pulvériser l'acide grâce à un bidon à embout aérosol fixé sur le manche de l'outil. Cette technique a coexisté avec le gemmage au hapchot dans l'ensemble du massif gascon, jusqu'à la disparition du gemmage en 1990.
 </t>
@@ -645,7 +665,9 @@
           <t>Déroulement d’une campagne de gemmage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une campagne de gemmage commence début février. On dit qu'un pin est prêt à être résiné dès que l’on peut l’entourer de son bras sans apercevoir sa main.
 Il faut alors préparer la future care, que l’on place à l’est car elle est à l’abri des intempéries. Pour cela on utilise le sarcle à peler, outil en acier, recourbé qui va permettre de racler l’écorce. Le pelage est une opération délicate car il faut laisser une fine épaisseur d’écorce en évitant de blesser le pin prématurément.
@@ -689,7 +711,9 @@
           <t>Le traitement de la gemme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de satisfaire des industries chimiques qui reposaient sur la distillation de la résine de pin, il fallait récolter des quantités considérables de ce produit.
 Les barriques remplies de résine, sont acheminées vers les distilleries. De tout temps, la résine issue des forêts du littoral était de meilleure qualité, les pins étant plus vigoureux et le climat plus clément. Par exemple, les résines de La Teste de Buch se vendaient plus cher et étaient d'excellente qualité : on pouvait en extraire jusqu'à 22,1 % de térébenthine contre 19,9 % à Dax et 19,5 % à Mont-de-Marsan.
@@ -730,7 +754,9 @@
           <t>Le calendrier du gemmeur</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>février : pendant cette période, le gemmeur ouvre le chantier. Il prépare les pins, d'abord à la hache pour enlever l'écorce sur 50 cm de haut puis pose les crampons (lames de zinc arrondies), les pots, et façonne la première care.
 mars : selon l'ensoleillement, la campagne peut commencer au début du mois.
@@ -766,7 +792,9 @@
           <t>Glossaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Quelques termes liés au gemmage :
 Amassa : récolte de la résine contenue dans les pots
@@ -808,12 +836,14 @@
           <t>Aujourd'hui</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gemmage a décliné progressivement après les années 1960, et a totalement disparu en forêt de Gascogne en 1990. L'industrie chimique (essence de térébenthine et autres dérivés terpéniques, par exemple) a trouvé d'autres sources plus économiques pour ses produits de base en important de la gemme étrangère à faible coût de main-d'œuvre.
 Aujourd'hui encore, l'exploitation touristique et publicitaire de la forêt donne lieu à la vente de petits pots de terre très semblables à ceux qui étaient utilisés à l'époque. Cette activité qui a longtemps été la seule activité industrielle de la région landaise est devenue une caractéristique, une icône des Landes (au même titre que les échassiers landais).
 Cette icône se retrouve sur de nombreuses cartes postales destinées au tourisme et on la retrouve aussi dans le cadre de l'écomusée de Marquèze et de quelques sentiers de présentation du gemmage.
-Plusieurs projets de relance sont en cours actuellement, utilisant le système de collecte de la résine en vase clos. Depuis 2012, des expérimentations ont lieu dans le Médoc (au Porge) sur le bassin d'Arcachon et à Biscarrosse. Plus de 25 ans après la fin de la récolte de résine en France, un investisseur indépendant en était, en 2013, à sa troisième campagne de gemmage[3],[4].
+Plusieurs projets de relance sont en cours actuellement, utilisant le système de collecte de la résine en vase clos. Depuis 2012, des expérimentations ont lieu dans le Médoc (au Porge) sur le bassin d'Arcachon et à Biscarrosse. Plus de 25 ans après la fin de la récolte de résine en France, un investisseur indépendant en était, en 2013, à sa troisième campagne de gemmage,.
 </t>
         </is>
       </c>
@@ -842,9 +872,11 @@
           <t>Poème</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théophile Gautier évoque la pratique du gemmage dans son poème Le Pin des Landes. Dans une lettre du 5 juin 1845[5], il écrit :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théophile Gautier évoque la pratique du gemmage dans son poème Le Pin des Landes. Dans une lettre du 5 juin 1845, il écrit :
 « Ne sachant à quoi m'occuper l'esprit pendant cette route interminable, je m'amusai à composer la petite pièce en vers suivante, inspirée par ces pins mélancoliques »
 Un extrait :
 Car, pour lui dérober ses larmes de résine,
@@ -879,7 +911,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Récolte de la résine, gravure d'après Louis Anselme Longa.
